--- a/config_11.9/rank_server.xlsx
+++ b/config_11.9/rank_server.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="706">
   <si>
     <t>id|</t>
   </si>
@@ -2845,10 +2845,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>free_bigger</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>fix_time</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2903,6 +2899,14 @@
   </si>
   <si>
     <t>80000福利券</t>
+  </si>
+  <si>
+    <t>nor_add</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor_add</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3515,7 +3519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5629,7 +5633,7 @@
         <v>1626105599</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>14</v>
+        <v>704</v>
       </c>
       <c r="I59" s="39" t="s">
         <v>15</v>
@@ -5696,7 +5700,7 @@
         <v>1637596799</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="I61" s="52" t="s">
         <v>694</v>
@@ -12459,7 +12463,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C62" s="51">
         <v>1634572799</v>
@@ -12470,7 +12474,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C63" s="4">
         <v>1637596799</v>
@@ -32521,10 +32525,10 @@
         <v>517</v>
       </c>
       <c r="C522" s="54" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D522" s="54" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E522" s="4">
         <v>100</v>
@@ -32541,10 +32545,10 @@
         <v>518</v>
       </c>
       <c r="C523" s="54" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D523" s="54" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E523" s="4">
         <v>5000</v>
@@ -32561,10 +32565,10 @@
         <v>519</v>
       </c>
       <c r="C524" s="54" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D524" s="54" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E524" s="4">
         <v>10000</v>
@@ -32584,7 +32588,7 @@
         <v>624</v>
       </c>
       <c r="D525" s="54" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E525" s="4">
         <v>100</v>
@@ -32604,7 +32608,7 @@
         <v>623</v>
       </c>
       <c r="D526" s="54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E526" s="4">
         <v>200</v>
@@ -32624,7 +32628,7 @@
         <v>622</v>
       </c>
       <c r="D527" s="54" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E527" s="4">
         <v>500</v>
@@ -32644,7 +32648,7 @@
         <v>642</v>
       </c>
       <c r="D528" s="54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E528" s="4">
         <v>1000</v>
@@ -32664,7 +32668,7 @@
         <v>657</v>
       </c>
       <c r="D529" s="54" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E529" s="4">
         <v>2000</v>
@@ -32684,7 +32688,7 @@
         <v>656</v>
       </c>
       <c r="D530" s="54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E530" s="4">
         <v>3000</v>
@@ -32704,7 +32708,7 @@
         <v>660</v>
       </c>
       <c r="D531" s="54" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E531" s="4">
         <v>5000</v>
@@ -32724,7 +32728,7 @@
         <v>612</v>
       </c>
       <c r="D532" s="54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E532" s="4">
         <v>10000</v>
@@ -32744,7 +32748,7 @@
         <v>659</v>
       </c>
       <c r="D533" s="54" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E533" s="4">
         <v>15000</v>
@@ -32764,7 +32768,7 @@
         <v>655</v>
       </c>
       <c r="D534" s="54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E534" s="4">
         <v>30000</v>
@@ -32784,7 +32788,7 @@
         <v>665</v>
       </c>
       <c r="D535" s="54" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E535" s="4">
         <v>40000</v>
@@ -32804,7 +32808,7 @@
         <v>658</v>
       </c>
       <c r="D536" s="54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E536" s="4">
         <v>50000</v>
@@ -32821,10 +32825,10 @@
         <v>532</v>
       </c>
       <c r="C537" s="54" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D537" s="54" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E537" s="4">
         <v>80000</v>
